--- a/biology/Écologie/Motus_(radiotracking)/Motus_(radiotracking).xlsx
+++ b/biology/Écologie/Motus_(radiotracking)/Motus_(radiotracking).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Motus est un système de radiotracking automatisé collaboratif international.  Il repose sur un réseau coordonné de stations réceptrices répandues sur le territoire, principalement en Amérique du Nord, mais aussi en Amérique latine et en Europe.  Les stations fonctionnent sur une fréquence radio unique et toutes les données sont archivées sur un site central[1].   Créé en 2012, il comptait en date de 2017 plus de 350 stations[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motus est un système de radiotracking automatisé collaboratif international.  Il repose sur un réseau coordonné de stations réceptrices répandues sur le territoire, principalement en Amérique du Nord, mais aussi en Amérique latine et en Europe.  Les stations fonctionnent sur une fréquence radio unique et toutes les données sont archivées sur un site central.   Créé en 2012, il comptait en date de 2017 plus de 350 stations.
 </t>
         </is>
       </c>
